--- a/Assets/vlny.xlsx
+++ b/Assets/vlny.xlsx
@@ -120,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -499,11 +499,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="dotted">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="dotted">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="dotted">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="dotted">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,16 +600,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -535,9 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,45 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,9 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,9 +652,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -636,6 +668,78 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,664 +1064,676 @@
     </row>
     <row r="4" spans="3:15" ht="27" customHeight="1" thickBot="1">
       <c r="C4" s="3"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="42" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="3:15" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C5" s="4"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="3:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="C6" s="4"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="3:15">
-      <c r="C7" s="7"/>
-      <c r="D7" s="25">
+      <c r="C7" s="39"/>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>3</v>
-      </c>
-      <c r="G7" s="31">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
+      <c r="E7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="7"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="7"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="3:15">
       <c r="C10" s="3"/>
-      <c r="D10" s="29">
+      <c r="D10" s="31">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
+      <c r="H10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="3:15">
       <c r="C11" s="3"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" s="3"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="10"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" s="1"/>
-      <c r="D13" s="26">
-        <v>3</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="37">
-        <v>3</v>
-      </c>
-      <c r="G13" s="38">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="D13" s="32">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="20">
+        <v>5</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="3:15">
       <c r="C14" s="1"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" s="1"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="3:15">
       <c r="C16" s="1"/>
-      <c r="D16" s="29">
+      <c r="D16" s="31">
         <v>4</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
-        <v>3</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="1"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="1"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="1"/>
-      <c r="D19" s="26">
+      <c r="D19" s="32">
         <v>5</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="37">
+      <c r="E19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="20">
         <v>7</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="21">
         <v>2</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="H19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="1"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="D20" s="32"/>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>2</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="H20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="1"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="1"/>
-      <c r="D22" s="29">
+      <c r="D22" s="31">
         <v>6</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
         <v>7</v>
       </c>
-      <c r="G22" s="6">
-        <v>3</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="1"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="3:14">
       <c r="C24" s="1"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="D24" s="33"/>
+      <c r="E24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H24" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="H24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="3:14">
       <c r="C25" s="1"/>
-      <c r="D25" s="26">
+      <c r="D25" s="32">
         <v>7</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="37">
+      <c r="E25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="20">
         <v>5</v>
       </c>
-      <c r="G25" s="38">
-        <v>3</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="G25" s="21">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="1"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="D26" s="32"/>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
         <v>2</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="H26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="1"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="33">
+      <c r="D27" s="32"/>
+      <c r="E27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="17">
         <v>2</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="18">
         <v>1</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="1"/>
-      <c r="D28" s="29">
-        <v>8</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="D28" s="31">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="1"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="D29" s="32"/>
+      <c r="E29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5">
         <v>2</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="H29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="3:14">
       <c r="C30" s="1"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="1"/>
-      <c r="D31" s="26">
-        <v>9</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="10"/>
+      <c r="D31" s="32">
+        <v>9</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="20">
+        <v>5</v>
+      </c>
+      <c r="G31" s="21">
+        <v>3</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="1"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="1"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="33">
+      <c r="D33" s="32"/>
+      <c r="E33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="17">
         <v>10</v>
       </c>
-      <c r="G33" s="34">
-        <v>3</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="G33" s="18">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="1"/>
-      <c r="D34" s="29">
+      <c r="D34" s="31">
         <v>10</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="5">
-        <v>10</v>
-      </c>
-      <c r="G34" s="6">
-        <v>3</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
+      <c r="E34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5">
+        <v>4</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="3:13">
       <c r="C35" s="1"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="D35" s="32"/>
+      <c r="E35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="H35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="3:13">
       <c r="C36" s="1"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="5">
-        <v>5</v>
-      </c>
-      <c r="G36" s="6">
-        <v>2</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5">
+        <v>4</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1627,16 +1743,16 @@
       <c r="D37" s="27">
         <v>11</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
+      <c r="E37" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1644,16 +1760,16 @@
     <row r="38" spans="3:13">
       <c r="C38" s="1"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1661,35 +1777,35 @@
     <row r="39" spans="3:13">
       <c r="C39" s="1"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
+      <c r="E39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="3:13">
       <c r="C40" s="1"/>
-      <c r="D40" s="39">
+      <c r="D40" s="28">
         <v>12</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="E40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -1697,33 +1813,33 @@
     <row r="41" spans="3:13">
       <c r="C41" s="1"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
+      <c r="E41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="1"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -1733,16 +1849,16 @@
       <c r="D43" s="27">
         <v>13</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
+      <c r="E43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -1750,16 +1866,16 @@
     <row r="44" spans="3:13">
       <c r="C44" s="1"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="E44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -1767,35 +1883,35 @@
     <row r="45" spans="3:13">
       <c r="C45" s="1"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
+      <c r="E45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="3:13">
       <c r="C46" s="1"/>
-      <c r="D46" s="39">
+      <c r="D46" s="28">
         <v>14</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
+      <c r="E46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -1803,33 +1919,33 @@
     <row r="47" spans="3:13">
       <c r="C47" s="1"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
+      <c r="E47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="3:13">
       <c r="C48" s="1"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -1839,16 +1955,16 @@
       <c r="D49" s="27">
         <v>15</v>
       </c>
-      <c r="E49" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="E49" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -1856,16 +1972,16 @@
     <row r="50" spans="3:13">
       <c r="C50" s="1"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="6"/>
+      <c r="E50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -1873,16 +1989,16 @@
     <row r="51" spans="3:13">
       <c r="C51" s="1"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
+      <c r="E51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -1893,7 +2009,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="40"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="1"/>
@@ -1906,7 +2022,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="1"/>
@@ -1919,7 +2035,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="1"/>
@@ -1932,7 +2048,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="1"/>
@@ -1945,7 +2061,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="1"/>
@@ -1958,7 +2074,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="1"/>
@@ -1971,7 +2087,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="1"/>
@@ -1984,7 +2100,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="1"/>
@@ -1997,7 +2113,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="1"/>
@@ -2010,7 +2126,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="8"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="1"/>
@@ -2043,6 +2159,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="D43:D45"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="D49:D51"/>
@@ -2058,12 +2180,6 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
